--- a/ICD-10 conversions_12_17-19 (1).xlsx
+++ b/ICD-10 conversions_12_17-19 (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Documents\GitHub\Johns-Hopkins-Overuse-Project-with-Segal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="560" windowWidth="20730" windowHeight="5280" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="500" yWindow="560" windowWidth="20730" windowHeight="5280" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="479">
   <si>
     <t>Working Number</t>
   </si>
@@ -1898,6 +1898,13 @@
       </rPr>
       <t xml:space="preserve">  CPT code for w/ and CPT for w/o on same day</t>
     </r>
+  </si>
+  <si>
+    <t>remove per 13mar2020 phone</t>
+  </si>
+  <si>
+    <t>13mar2020: outpatient (including ED)
+Inpatient or outpatient (including ED)</t>
   </si>
 </sst>
 </file>
@@ -3564,9 +3571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -3833,7 +3840,7 @@
         <v>294</v>
       </c>
       <c r="E8" s="237" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="F8" s="235" t="s">
         <v>230</v>
@@ -5676,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP124"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -24431,9 +24438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
@@ -25585,7 +25592,9 @@
       <c r="E27" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="41" t="s">
+        <v>477</v>
+      </c>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
@@ -25628,7 +25637,9 @@
       <c r="E28" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="43" t="s">
+        <v>477</v>
+      </c>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
